--- a/Code/Results/Cases/Case_2_224/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_224/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.016899637261594</v>
+        <v>1.037478998811781</v>
       </c>
       <c r="D2">
-        <v>1.034317789352658</v>
+        <v>1.044485507862041</v>
       </c>
       <c r="E2">
-        <v>0.9527101846680761</v>
+        <v>0.992614727750844</v>
       </c>
       <c r="F2">
-        <v>1.035303489648874</v>
+        <v>1.051857989883588</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.053776704463764</v>
+        <v>1.041410640329165</v>
       </c>
       <c r="J2">
-        <v>1.038586370331784</v>
+        <v>1.042581647992885</v>
       </c>
       <c r="K2">
-        <v>1.045318862493605</v>
+        <v>1.047256424613482</v>
       </c>
       <c r="L2">
-        <v>0.9648701708403392</v>
+        <v>0.9955398523335997</v>
       </c>
       <c r="M2">
-        <v>1.04629196129236</v>
+        <v>1.05460832837209</v>
       </c>
       <c r="N2">
-        <v>1.040061282105177</v>
+        <v>1.044062233518821</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.020850621147862</v>
+        <v>1.038304265240848</v>
       </c>
       <c r="D3">
-        <v>1.037330005341191</v>
+        <v>1.045135586391539</v>
       </c>
       <c r="E3">
-        <v>0.9571825583057848</v>
+        <v>0.9936372048519299</v>
       </c>
       <c r="F3">
-        <v>1.038996045489711</v>
+        <v>1.052686663511202</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.055078951400947</v>
+        <v>1.041620469822508</v>
       </c>
       <c r="J3">
-        <v>1.040788576966706</v>
+        <v>1.043051934727278</v>
       </c>
       <c r="K3">
-        <v>1.047506523193636</v>
+        <v>1.047718171311714</v>
       </c>
       <c r="L3">
-        <v>0.9683942856474066</v>
+        <v>0.9963617723202687</v>
       </c>
       <c r="M3">
-        <v>1.049153141479832</v>
+        <v>1.055249691056189</v>
       </c>
       <c r="N3">
-        <v>1.042266616126116</v>
+        <v>1.044533188114319</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.02335754015419</v>
+        <v>1.03883861150471</v>
       </c>
       <c r="D4">
-        <v>1.03924356423293</v>
+        <v>1.045556503135498</v>
       </c>
       <c r="E4">
-        <v>0.9600238894088612</v>
+        <v>0.9942998659930998</v>
       </c>
       <c r="F4">
-        <v>1.041344253750539</v>
+        <v>1.053223614746326</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.055894761073765</v>
+        <v>1.041755044488878</v>
       </c>
       <c r="J4">
-        <v>1.042182058709772</v>
+        <v>1.043355912865405</v>
       </c>
       <c r="K4">
-        <v>1.048890346921376</v>
+        <v>1.048016538242527</v>
       </c>
       <c r="L4">
-        <v>0.9706300002952756</v>
+        <v>0.9968940712668347</v>
       </c>
       <c r="M4">
-        <v>1.050968039337724</v>
+        <v>1.055664789058558</v>
       </c>
       <c r="N4">
-        <v>1.043662076773092</v>
+        <v>1.04483759793627</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.024399931942137</v>
+        <v>1.0390633313892</v>
       </c>
       <c r="D5">
-        <v>1.040039745033235</v>
+        <v>1.045733520042528</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769891</v>
+        <v>0.994578699834602</v>
       </c>
       <c r="F5">
-        <v>1.042321887517414</v>
+        <v>1.053449525287485</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.056231430277191</v>
+        <v>1.041811331832452</v>
       </c>
       <c r="J5">
-        <v>1.042760530768454</v>
+        <v>1.043483625342824</v>
       </c>
       <c r="K5">
-        <v>1.049464694183867</v>
+        <v>1.048141871300885</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702912</v>
+        <v>0.9971179600053012</v>
       </c>
       <c r="M5">
-        <v>1.051722524388424</v>
+        <v>1.055839317061681</v>
       </c>
       <c r="N5">
-        <v>1.04424137032845</v>
+        <v>1.044965491780056</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.024574289058661</v>
+        <v>1.039101067534252</v>
       </c>
       <c r="D6">
-        <v>1.040172948304578</v>
+        <v>1.045763245634163</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017085</v>
+        <v>0.994625531979634</v>
       </c>
       <c r="F6">
-        <v>1.042485484588708</v>
+        <v>1.053487466941913</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.056287592809836</v>
+        <v>1.041820765822659</v>
       </c>
       <c r="J6">
-        <v>1.042857233320698</v>
+        <v>1.043505064107299</v>
       </c>
       <c r="K6">
-        <v>1.049560700217725</v>
+        <v>1.048162909348377</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965046</v>
+        <v>0.9971555583673455</v>
       </c>
       <c r="M6">
-        <v>1.051848714053698</v>
+        <v>1.055868622255546</v>
       </c>
       <c r="N6">
-        <v>1.04433821020941</v>
+        <v>1.044986960990036</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.023371513425861</v>
+        <v>1.038841613907611</v>
       </c>
       <c r="D7">
-        <v>1.039254235073081</v>
+        <v>1.045558868196698</v>
       </c>
       <c r="E7">
-        <v>0.9600397355691357</v>
+        <v>0.994303590798249</v>
       </c>
       <c r="F7">
-        <v>1.041357354099296</v>
+        <v>1.053226632683874</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.055899284244144</v>
+        <v>1.041755797735147</v>
       </c>
       <c r="J7">
-        <v>1.042189816904507</v>
+        <v>1.043357619681376</v>
       </c>
       <c r="K7">
-        <v>1.048898050261385</v>
+        <v>1.048018213345086</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290568</v>
+        <v>0.9968970624462089</v>
       </c>
       <c r="M7">
-        <v>1.05097815389113</v>
+        <v>1.055667121030511</v>
       </c>
       <c r="N7">
-        <v>1.043669845985354</v>
+        <v>1.044839307176116</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.018245392386961</v>
+        <v>1.03775782935741</v>
       </c>
       <c r="D8">
-        <v>1.035343283936261</v>
+        <v>1.044705147495145</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922297</v>
+        <v>0.9929600610674297</v>
       </c>
       <c r="F8">
-        <v>1.036560100538947</v>
+        <v>1.052137888844922</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.054222438400928</v>
+        <v>1.041481800983225</v>
       </c>
       <c r="J8">
-        <v>1.039337255561434</v>
+        <v>1.042740650955044</v>
       </c>
       <c r="K8">
-        <v>1.046064879219224</v>
+        <v>1.047412559040942</v>
       </c>
       <c r="L8">
-        <v>0.966070643453771</v>
+        <v>0.9958175282591056</v>
       </c>
       <c r="M8">
-        <v>1.047266607958938</v>
+        <v>1.054825059598462</v>
       </c>
       <c r="N8">
-        <v>1.040813233677981</v>
+        <v>1.044221462283425</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.008815140277856</v>
+        <v>1.035850764087873</v>
       </c>
       <c r="D9">
-        <v>1.028168574703624</v>
+        <v>1.043202945253058</v>
       </c>
       <c r="E9">
-        <v>0.9435740419925933</v>
+        <v>0.9906006454969559</v>
       </c>
       <c r="F9">
-        <v>1.027778022848882</v>
+        <v>1.050225163720742</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.051056147350097</v>
+        <v>1.040989835413988</v>
       </c>
       <c r="J9">
-        <v>1.034060407887237</v>
+        <v>1.041651008233089</v>
       </c>
       <c r="K9">
-        <v>1.040820589632773</v>
+        <v>1.046342203753529</v>
       </c>
       <c r="L9">
-        <v>0.9576541208834081</v>
+        <v>0.9939188001724441</v>
       </c>
       <c r="M9">
-        <v>1.040435942440421</v>
+        <v>1.05334202493069</v>
       </c>
       <c r="N9">
-        <v>1.035528892274824</v>
+        <v>1.04313027214382</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.002235647837284</v>
+        <v>1.034581296458568</v>
       </c>
       <c r="D10">
-        <v>1.023179065227336</v>
+        <v>1.042203033417966</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547283</v>
+        <v>0.989033133672735</v>
       </c>
       <c r="F10">
-        <v>1.021682038113452</v>
+        <v>1.048954011310369</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.048794254367813</v>
+        <v>1.040655754543713</v>
       </c>
       <c r="J10">
-        <v>1.0303608451708</v>
+        <v>1.040922994177115</v>
       </c>
       <c r="K10">
-        <v>1.037142057030875</v>
+        <v>1.045626614704874</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689358</v>
+        <v>0.9926553831429383</v>
       </c>
       <c r="M10">
-        <v>1.03567054918025</v>
+        <v>1.052353956345516</v>
       </c>
       <c r="N10">
-        <v>1.031824075754983</v>
+        <v>1.042401224224382</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9993111317761826</v>
+        <v>1.034032075206929</v>
       </c>
       <c r="D11">
-        <v>1.020965778855556</v>
+        <v>1.041770451217198</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016257</v>
+        <v>0.988355674866747</v>
       </c>
       <c r="F11">
-        <v>1.018980346758612</v>
+        <v>1.048404559847381</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.047776883361456</v>
+        <v>1.040509655919595</v>
       </c>
       <c r="J11">
-        <v>1.028712596578747</v>
+        <v>1.040607395020054</v>
       </c>
       <c r="K11">
-        <v>1.035502853812774</v>
+        <v>1.045316293748312</v>
       </c>
       <c r="L11">
-        <v>0.9491556125416573</v>
+        <v>0.9921088820399291</v>
       </c>
       <c r="M11">
-        <v>1.033552983725348</v>
+        <v>1.051926278679542</v>
       </c>
       <c r="N11">
-        <v>1.030173486460872</v>
+        <v>1.042085176880319</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9982129279995554</v>
+        <v>1.03382814162499</v>
       </c>
       <c r="D12">
-        <v>1.0201353857619</v>
+        <v>1.041609830685118</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411971</v>
+        <v>0.9881042295826724</v>
       </c>
       <c r="F12">
-        <v>1.017967050032663</v>
+        <v>1.048200616109566</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.047393089994017</v>
+        <v>1.040455172899255</v>
       </c>
       <c r="J12">
-        <v>1.028093112962442</v>
+        <v>1.040490113910807</v>
       </c>
       <c r="K12">
-        <v>1.034886730095509</v>
+        <v>1.045200957952566</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252507</v>
+        <v>0.9919059725120875</v>
       </c>
       <c r="M12">
-        <v>1.0327579393524</v>
+        <v>1.05176744614342</v>
       </c>
       <c r="N12">
-        <v>1.029553123106777</v>
+        <v>1.041967729218444</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9984490446486659</v>
+        <v>1.033871882803725</v>
       </c>
       <c r="D13">
-        <v>1.020313888403599</v>
+        <v>1.041644281602534</v>
       </c>
       <c r="E13">
-        <v>0.931872359336823</v>
+        <v>0.9881581567098651</v>
       </c>
       <c r="F13">
-        <v>1.018184855010016</v>
+        <v>1.048244356051391</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.047475685049005</v>
+        <v>1.040466869430943</v>
       </c>
       <c r="J13">
-        <v>1.02822632730784</v>
+        <v>1.040515273510015</v>
       </c>
       <c r="K13">
-        <v>1.035019223573949</v>
+        <v>1.045225700964252</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965215</v>
+        <v>0.9919494934313052</v>
       </c>
       <c r="M13">
-        <v>1.032928869037423</v>
+        <v>1.051801515060236</v>
       </c>
       <c r="N13">
-        <v>1.029686526631825</v>
+        <v>1.041992924547169</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9992206001812839</v>
+        <v>1.034015216522969</v>
       </c>
       <c r="D14">
-        <v>1.020897309298046</v>
+        <v>1.04175717304486</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194318</v>
+        <v>0.9883348863814464</v>
       </c>
       <c r="F14">
-        <v>1.018896789241536</v>
+        <v>1.048387698784767</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.047745280332106</v>
+        <v>1.040505156727551</v>
       </c>
       <c r="J14">
-        <v>1.028661539537314</v>
+        <v>1.040597701612062</v>
       </c>
       <c r="K14">
-        <v>1.035452074445139</v>
+        <v>1.04530676145116</v>
       </c>
       <c r="L14">
-        <v>0.9490745509764519</v>
+        <v>0.9920921077337197</v>
       </c>
       <c r="M14">
-        <v>1.033487440358499</v>
+        <v>1.05191314899327</v>
       </c>
       <c r="N14">
-        <v>1.030122356912585</v>
+        <v>1.042075469706576</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.999694385783697</v>
+        <v>1.034103538697817</v>
       </c>
       <c r="D15">
-        <v>1.02125566622882</v>
+        <v>1.04182673715864</v>
       </c>
       <c r="E15">
-        <v>0.9332781050737295</v>
+        <v>0.9884438009545853</v>
       </c>
       <c r="F15">
-        <v>1.019334127425402</v>
+        <v>1.04847603650886</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.047910599539864</v>
+        <v>1.040528718263579</v>
       </c>
       <c r="J15">
-        <v>1.028928718311795</v>
+        <v>1.040648481228704</v>
       </c>
       <c r="K15">
-        <v>1.035717798601314</v>
+        <v>1.045356696416799</v>
       </c>
       <c r="L15">
-        <v>0.9494987508782939</v>
+        <v>0.9921799884222134</v>
       </c>
       <c r="M15">
-        <v>1.033830459073984</v>
+        <v>1.051981933834834</v>
       </c>
       <c r="N15">
-        <v>1.030389915111571</v>
+        <v>1.042126321436097</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.002428099742357</v>
+        <v>1.034617756426755</v>
       </c>
       <c r="D16">
-        <v>1.023324812169472</v>
+        <v>1.042231750759177</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017259</v>
+        <v>0.9890781214508737</v>
       </c>
       <c r="F16">
-        <v>1.021859995348486</v>
+        <v>1.048990497105839</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.048860957947914</v>
+        <v>1.040665420367185</v>
       </c>
       <c r="J16">
-        <v>1.030469233657418</v>
+        <v>1.040943931881257</v>
       </c>
       <c r="K16">
-        <v>1.037249844692321</v>
+        <v>1.045647199970722</v>
       </c>
       <c r="L16">
-        <v>0.9519451749175716</v>
+        <v>0.9926916645766087</v>
       </c>
       <c r="M16">
-        <v>1.035809914940991</v>
+        <v>1.052382343462494</v>
       </c>
       <c r="N16">
-        <v>1.031932618165685</v>
+        <v>1.042422191662466</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.004122276018283</v>
+        <v>1.034940437635525</v>
       </c>
       <c r="D17">
-        <v>1.024608358528958</v>
+        <v>1.042485909717261</v>
       </c>
       <c r="E17">
-        <v>0.938276015685567</v>
+        <v>0.989476357848556</v>
       </c>
       <c r="F17">
-        <v>1.02342747988177</v>
+        <v>1.049313464579203</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.049446797438743</v>
+        <v>1.040750785157935</v>
       </c>
       <c r="J17">
-        <v>1.03142295776549</v>
+        <v>1.04112916359046</v>
       </c>
       <c r="K17">
-        <v>1.038198246244093</v>
+        <v>1.045829301257982</v>
       </c>
       <c r="L17">
-        <v>0.9534603602068051</v>
+        <v>0.9930127773699352</v>
       </c>
       <c r="M17">
-        <v>1.037036841807667</v>
+        <v>1.052633554471626</v>
       </c>
       <c r="N17">
-        <v>1.032887696671384</v>
+        <v>1.042607686421943</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.005103210099965</v>
+        <v>1.035128697042792</v>
       </c>
       <c r="D18">
-        <v>1.025351959940401</v>
+        <v>1.042634193486341</v>
       </c>
       <c r="E18">
-        <v>0.9393832867215687</v>
+        <v>0.9897087662937556</v>
       </c>
       <c r="F18">
-        <v>1.024335807394501</v>
+        <v>1.049501939113357</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.049784859176711</v>
+        <v>1.040800438063123</v>
       </c>
       <c r="J18">
-        <v>1.031974801006616</v>
+        <v>1.04123717088592</v>
       </c>
       <c r="K18">
-        <v>1.038746978405347</v>
+        <v>1.045935472794102</v>
       </c>
       <c r="L18">
-        <v>0.954337351586573</v>
+        <v>0.9932001317071769</v>
       </c>
       <c r="M18">
-        <v>1.037747290933851</v>
+        <v>1.052780097181792</v>
       </c>
       <c r="N18">
-        <v>1.033440323593209</v>
+        <v>1.042715847100151</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.005436469861159</v>
+        <v>1.035192896207499</v>
       </c>
       <c r="D19">
-        <v>1.025604659167593</v>
+        <v>1.042684760667932</v>
       </c>
       <c r="E19">
-        <v>0.9397594814684969</v>
+        <v>0.9897880325774034</v>
       </c>
       <c r="F19">
-        <v>1.024644525669899</v>
+        <v>1.049566219788093</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.049899516334853</v>
+        <v>1.040817344831852</v>
       </c>
       <c r="J19">
-        <v>1.032162219444874</v>
+        <v>1.041273992571042</v>
       </c>
       <c r="K19">
-        <v>1.038933334671982</v>
+        <v>1.045971666862171</v>
       </c>
       <c r="L19">
-        <v>0.9546352493816594</v>
+        <v>0.9932640239640975</v>
       </c>
       <c r="M19">
-        <v>1.037988664748982</v>
+        <v>1.05283006705359</v>
       </c>
       <c r="N19">
-        <v>1.033628008187147</v>
+        <v>1.042752721076289</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.003941260785759</v>
+        <v>1.034905812338472</v>
       </c>
       <c r="D20">
-        <v>1.024471172960223</v>
+        <v>1.042458637011402</v>
       </c>
       <c r="E20">
-        <v>0.938071692466014</v>
+        <v>0.9894336180360679</v>
       </c>
       <c r="F20">
-        <v>1.023259923162127</v>
+        <v>1.049278803585475</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.049384321153848</v>
+        <v>1.040741640688718</v>
       </c>
       <c r="J20">
-        <v>1.031321094319449</v>
+        <v>1.041109293616089</v>
       </c>
       <c r="K20">
-        <v>1.038096954468591</v>
+        <v>1.045809768165292</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057443</v>
+        <v>0.9929783193494215</v>
       </c>
       <c r="M20">
-        <v>1.036905744172718</v>
+        <v>1.052606600285066</v>
       </c>
       <c r="N20">
-        <v>1.032785688567566</v>
+        <v>1.042587788229928</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9989937296870847</v>
+        <v>1.033973006325006</v>
       </c>
       <c r="D21">
-        <v>1.020725737853677</v>
+        <v>1.041723927665331</v>
       </c>
       <c r="E21">
-        <v>0.9324872132148895</v>
+        <v>0.9882828385668249</v>
       </c>
       <c r="F21">
-        <v>1.018687415672767</v>
+        <v>1.048345483849495</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.047666055630448</v>
+        <v>1.040493888015294</v>
       </c>
       <c r="J21">
-        <v>1.028533582978635</v>
+        <v>1.040573430058567</v>
       </c>
       <c r="K21">
-        <v>1.0353248131691</v>
+        <v>1.045282893046553</v>
       </c>
       <c r="L21">
-        <v>0.9488714019981064</v>
+        <v>0.9920501090198102</v>
       </c>
       <c r="M21">
-        <v>1.033323192252867</v>
+        <v>1.051880274852305</v>
       </c>
       <c r="N21">
-        <v>1.029994218640916</v>
+        <v>1.042051163684691</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9958138208365215</v>
+        <v>1.033386929441674</v>
       </c>
       <c r="D22">
-        <v>1.018322740972621</v>
+        <v>1.041262333335418</v>
       </c>
       <c r="E22">
-        <v>0.928897295365116</v>
+        <v>0.9875604150241495</v>
       </c>
       <c r="F22">
-        <v>1.015755745192894</v>
+        <v>1.047759520114002</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.046551493765257</v>
+        <v>1.04033686971944</v>
       </c>
       <c r="J22">
-        <v>1.026738855394189</v>
+        <v>1.040236202253747</v>
       </c>
       <c r="K22">
-        <v>1.033539754674091</v>
+        <v>1.044951228458217</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572515</v>
+        <v>0.9914670000341481</v>
       </c>
       <c r="M22">
-        <v>1.031021408701544</v>
+        <v>1.051423756379001</v>
       </c>
       <c r="N22">
-        <v>1.028196942337442</v>
+        <v>1.041713456977707</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9975063054034621</v>
+        <v>1.033697580007359</v>
       </c>
       <c r="D23">
-        <v>1.019601295467164</v>
+        <v>1.041506999792424</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963315</v>
+        <v>0.9879432794643023</v>
       </c>
       <c r="F23">
-        <v>1.01731541265052</v>
+        <v>1.048070069243902</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.047145655714122</v>
+        <v>1.040420225972674</v>
       </c>
       <c r="J23">
-        <v>1.027694368330359</v>
+        <v>1.040415001995086</v>
       </c>
       <c r="K23">
-        <v>1.034490138082419</v>
+        <v>1.045127087369106</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285319</v>
+        <v>0.991776070289318</v>
       </c>
       <c r="M23">
-        <v>1.032246424339858</v>
+        <v>1.051665750607867</v>
       </c>
       <c r="N23">
-        <v>1.02915381221158</v>
+        <v>1.041892510635187</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.004023076142841</v>
+        <v>1.034921457881165</v>
       </c>
       <c r="D24">
-        <v>1.024533176854947</v>
+        <v>1.042470960258669</v>
       </c>
       <c r="E24">
-        <v>0.9381640424011829</v>
+        <v>0.9894529299347244</v>
       </c>
       <c r="F24">
-        <v>1.023335653217077</v>
+        <v>1.04929446510923</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.049412562758708</v>
+        <v>1.040745773110102</v>
       </c>
       <c r="J24">
-        <v>1.031367135750296</v>
+        <v>1.041118272111197</v>
       </c>
       <c r="K24">
-        <v>1.038142737606978</v>
+        <v>1.045818594468473</v>
       </c>
       <c r="L24">
-        <v>0.9533716596442545</v>
+        <v>0.9929938892766442</v>
       </c>
       <c r="M24">
-        <v>1.036964997584314</v>
+        <v>1.052618779673794</v>
       </c>
       <c r="N24">
-        <v>1.032831795382525</v>
+        <v>1.04259677947553</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.011302709925103</v>
+        <v>1.036343456459404</v>
       </c>
       <c r="D25">
-        <v>1.030058553849488</v>
+        <v>1.043591033699923</v>
       </c>
       <c r="E25">
-        <v>0.9463835801718012</v>
+        <v>0.9912096547607049</v>
       </c>
       <c r="F25">
-        <v>1.030089370520002</v>
+        <v>1.050718952523519</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.051900649252029</v>
+        <v>1.041118099586906</v>
       </c>
       <c r="J25">
-        <v>1.035455589482018</v>
+        <v>1.041932991712921</v>
       </c>
       <c r="K25">
-        <v>1.042207504793616</v>
+        <v>1.046619277611801</v>
       </c>
       <c r="L25">
-        <v>0.9598754494005829</v>
+        <v>0.9944092447426414</v>
       </c>
       <c r="M25">
-        <v>1.042237877815382</v>
+        <v>1.053725322275387</v>
       </c>
       <c r="N25">
-        <v>1.036926055187499</v>
+        <v>1.043412656072538</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_224/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_224/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.037478998811781</v>
+        <v>1.016899637261594</v>
       </c>
       <c r="D2">
-        <v>1.044485507862041</v>
+        <v>1.034317789352658</v>
       </c>
       <c r="E2">
-        <v>0.992614727750844</v>
+        <v>0.9527101846680758</v>
       </c>
       <c r="F2">
-        <v>1.051857989883588</v>
+        <v>1.035303489648874</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.041410640329165</v>
+        <v>1.053776704463764</v>
       </c>
       <c r="J2">
-        <v>1.042581647992885</v>
+        <v>1.038586370331783</v>
       </c>
       <c r="K2">
-        <v>1.047256424613482</v>
+        <v>1.045318862493604</v>
       </c>
       <c r="L2">
-        <v>0.9955398523335997</v>
+        <v>0.964870170840339</v>
       </c>
       <c r="M2">
-        <v>1.05460832837209</v>
+        <v>1.04629196129236</v>
       </c>
       <c r="N2">
-        <v>1.044062233518821</v>
+        <v>1.040061282105176</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.038304265240848</v>
+        <v>1.020850621147862</v>
       </c>
       <c r="D3">
-        <v>1.045135586391539</v>
+        <v>1.037330005341191</v>
       </c>
       <c r="E3">
-        <v>0.9936372048519299</v>
+        <v>0.9571825583057846</v>
       </c>
       <c r="F3">
-        <v>1.052686663511202</v>
+        <v>1.038996045489711</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.041620469822508</v>
+        <v>1.055078951400947</v>
       </c>
       <c r="J3">
-        <v>1.043051934727278</v>
+        <v>1.040788576966706</v>
       </c>
       <c r="K3">
-        <v>1.047718171311714</v>
+        <v>1.047506523193636</v>
       </c>
       <c r="L3">
-        <v>0.9963617723202687</v>
+        <v>0.9683942856474063</v>
       </c>
       <c r="M3">
-        <v>1.055249691056189</v>
+        <v>1.049153141479833</v>
       </c>
       <c r="N3">
-        <v>1.044533188114319</v>
+        <v>1.042266616126116</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.03883861150471</v>
+        <v>1.023357540154189</v>
       </c>
       <c r="D4">
-        <v>1.045556503135498</v>
+        <v>1.039243564232929</v>
       </c>
       <c r="E4">
-        <v>0.9942998659930998</v>
+        <v>0.9600238894088611</v>
       </c>
       <c r="F4">
-        <v>1.053223614746326</v>
+        <v>1.041344253750538</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.041755044488878</v>
+        <v>1.055894761073765</v>
       </c>
       <c r="J4">
-        <v>1.043355912865405</v>
+        <v>1.042182058709771</v>
       </c>
       <c r="K4">
-        <v>1.048016538242527</v>
+        <v>1.048890346921376</v>
       </c>
       <c r="L4">
-        <v>0.9968940712668347</v>
+        <v>0.9706300002952755</v>
       </c>
       <c r="M4">
-        <v>1.055664789058558</v>
+        <v>1.050968039337724</v>
       </c>
       <c r="N4">
-        <v>1.04483759793627</v>
+        <v>1.043662076773092</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.0390633313892</v>
+        <v>1.024399931942136</v>
       </c>
       <c r="D5">
-        <v>1.045733520042528</v>
+        <v>1.040039745033234</v>
       </c>
       <c r="E5">
-        <v>0.994578699834602</v>
+        <v>0.9612062874769892</v>
       </c>
       <c r="F5">
-        <v>1.053449525287485</v>
+        <v>1.042321887517413</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.041811331832452</v>
+        <v>1.056231430277191</v>
       </c>
       <c r="J5">
-        <v>1.043483625342824</v>
+        <v>1.042760530768453</v>
       </c>
       <c r="K5">
-        <v>1.048141871300885</v>
+        <v>1.049464694183867</v>
       </c>
       <c r="L5">
-        <v>0.9971179600053012</v>
+        <v>0.9715596031702914</v>
       </c>
       <c r="M5">
-        <v>1.055839317061681</v>
+        <v>1.051722524388424</v>
       </c>
       <c r="N5">
-        <v>1.044965491780056</v>
+        <v>1.044241370328449</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.039101067534252</v>
+        <v>1.024574289058662</v>
       </c>
       <c r="D6">
-        <v>1.045763245634163</v>
+        <v>1.040172948304579</v>
       </c>
       <c r="E6">
-        <v>0.994625531979634</v>
+        <v>0.9614041218017083</v>
       </c>
       <c r="F6">
-        <v>1.053487466941913</v>
+        <v>1.042485484588709</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.041820765822659</v>
+        <v>1.056287592809837</v>
       </c>
       <c r="J6">
-        <v>1.043505064107299</v>
+        <v>1.042857233320699</v>
       </c>
       <c r="K6">
-        <v>1.048162909348377</v>
+        <v>1.049560700217726</v>
       </c>
       <c r="L6">
-        <v>0.9971555583673455</v>
+        <v>0.9717150950965043</v>
       </c>
       <c r="M6">
-        <v>1.055868622255546</v>
+        <v>1.0518487140537</v>
       </c>
       <c r="N6">
-        <v>1.044986960990036</v>
+        <v>1.044338210209411</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.038841613907611</v>
+        <v>1.023371513425861</v>
       </c>
       <c r="D7">
-        <v>1.045558868196698</v>
+        <v>1.03925423507308</v>
       </c>
       <c r="E7">
-        <v>0.994303590798249</v>
+        <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>1.053226632683874</v>
+        <v>1.041357354099296</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.041755797735147</v>
+        <v>1.055899284244144</v>
       </c>
       <c r="J7">
-        <v>1.043357619681376</v>
+        <v>1.042189816904506</v>
       </c>
       <c r="K7">
-        <v>1.048018213345086</v>
+        <v>1.048898050261384</v>
       </c>
       <c r="L7">
-        <v>0.9968970624462089</v>
+        <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>1.055667121030511</v>
+        <v>1.050978153891129</v>
       </c>
       <c r="N7">
-        <v>1.044839307176116</v>
+        <v>1.043669845985353</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.03775782935741</v>
+        <v>1.018245392386962</v>
       </c>
       <c r="D8">
-        <v>1.044705147495145</v>
+        <v>1.035343283936261</v>
       </c>
       <c r="E8">
-        <v>0.9929600610674297</v>
+        <v>0.9542328392922295</v>
       </c>
       <c r="F8">
-        <v>1.052137888844922</v>
+        <v>1.036560100538948</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.041481800983225</v>
+        <v>1.054222438400928</v>
       </c>
       <c r="J8">
-        <v>1.042740650955044</v>
+        <v>1.039337255561435</v>
       </c>
       <c r="K8">
-        <v>1.047412559040942</v>
+        <v>1.046064879219224</v>
       </c>
       <c r="L8">
-        <v>0.9958175282591056</v>
+        <v>0.9660706434537708</v>
       </c>
       <c r="M8">
-        <v>1.054825059598462</v>
+        <v>1.047266607958938</v>
       </c>
       <c r="N8">
-        <v>1.044221462283425</v>
+        <v>1.040813233677981</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.035850764087873</v>
+        <v>1.008815140277855</v>
       </c>
       <c r="D9">
-        <v>1.043202945253058</v>
+        <v>1.028168574703624</v>
       </c>
       <c r="E9">
-        <v>0.9906006454969559</v>
+        <v>0.9435740419925935</v>
       </c>
       <c r="F9">
-        <v>1.050225163720742</v>
+        <v>1.027778022848882</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.040989835413988</v>
+        <v>1.051056147350096</v>
       </c>
       <c r="J9">
-        <v>1.041651008233089</v>
+        <v>1.034060407887237</v>
       </c>
       <c r="K9">
-        <v>1.046342203753529</v>
+        <v>1.040820589632773</v>
       </c>
       <c r="L9">
-        <v>0.9939188001724441</v>
+        <v>0.9576541208834084</v>
       </c>
       <c r="M9">
-        <v>1.05334202493069</v>
+        <v>1.040435942440421</v>
       </c>
       <c r="N9">
-        <v>1.04313027214382</v>
+        <v>1.035528892274824</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.034581296458568</v>
+        <v>1.002235647837284</v>
       </c>
       <c r="D10">
-        <v>1.042203033417966</v>
+        <v>1.023179065227335</v>
       </c>
       <c r="E10">
-        <v>0.989033133672735</v>
+        <v>0.9361465105547281</v>
       </c>
       <c r="F10">
-        <v>1.048954011310369</v>
+        <v>1.021682038113452</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.040655754543713</v>
+        <v>1.048794254367813</v>
       </c>
       <c r="J10">
-        <v>1.040922994177115</v>
+        <v>1.030360845170799</v>
       </c>
       <c r="K10">
-        <v>1.045626614704874</v>
+        <v>1.037142057030874</v>
       </c>
       <c r="L10">
-        <v>0.9926553831429383</v>
+        <v>0.9517730114689357</v>
       </c>
       <c r="M10">
-        <v>1.052353956345516</v>
+        <v>1.035670549180249</v>
       </c>
       <c r="N10">
-        <v>1.042401224224382</v>
+        <v>1.031824075754983</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.034032075206929</v>
+        <v>0.9993111317761831</v>
       </c>
       <c r="D11">
-        <v>1.041770451217198</v>
+        <v>1.020965778855557</v>
       </c>
       <c r="E11">
-        <v>0.988355674866747</v>
+        <v>0.9328454960016256</v>
       </c>
       <c r="F11">
-        <v>1.048404559847381</v>
+        <v>1.018980346758613</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.040509655919595</v>
+        <v>1.047776883361457</v>
       </c>
       <c r="J11">
-        <v>1.040607395020054</v>
+        <v>1.028712596578747</v>
       </c>
       <c r="K11">
-        <v>1.045316293748312</v>
+        <v>1.035502853812775</v>
       </c>
       <c r="L11">
-        <v>0.9921088820399291</v>
+        <v>0.9491556125416571</v>
       </c>
       <c r="M11">
-        <v>1.051926278679542</v>
+        <v>1.033552983725349</v>
       </c>
       <c r="N11">
-        <v>1.042085176880319</v>
+        <v>1.030173486460873</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.03382814162499</v>
+        <v>0.9982129279995547</v>
       </c>
       <c r="D12">
-        <v>1.041609830685118</v>
+        <v>1.020135385761899</v>
       </c>
       <c r="E12">
-        <v>0.9881042295826724</v>
+        <v>0.9316058186411971</v>
       </c>
       <c r="F12">
-        <v>1.048200616109566</v>
+        <v>1.017967050032662</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.040455172899255</v>
+        <v>1.047393089994016</v>
       </c>
       <c r="J12">
-        <v>1.040490113910807</v>
+        <v>1.028093112962442</v>
       </c>
       <c r="K12">
-        <v>1.045200957952566</v>
+        <v>1.034886730095508</v>
       </c>
       <c r="L12">
-        <v>0.9919059725120875</v>
+        <v>0.9481721277252506</v>
       </c>
       <c r="M12">
-        <v>1.05176744614342</v>
+        <v>1.032757939352399</v>
       </c>
       <c r="N12">
-        <v>1.041967729218444</v>
+        <v>1.029553123106777</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.033871882803725</v>
+        <v>0.9984490446486655</v>
       </c>
       <c r="D13">
-        <v>1.041644281602534</v>
+        <v>1.020313888403598</v>
       </c>
       <c r="E13">
-        <v>0.9881581567098651</v>
+        <v>0.9318723593368229</v>
       </c>
       <c r="F13">
-        <v>1.048244356051391</v>
+        <v>1.018184855010015</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.040466869430943</v>
+        <v>1.047475685049005</v>
       </c>
       <c r="J13">
-        <v>1.040515273510015</v>
+        <v>1.028226327307839</v>
       </c>
       <c r="K13">
-        <v>1.045225700964252</v>
+        <v>1.035019223573948</v>
       </c>
       <c r="L13">
-        <v>0.9919494934313052</v>
+        <v>0.9483836088965214</v>
       </c>
       <c r="M13">
-        <v>1.051801515060236</v>
+        <v>1.032928869037423</v>
       </c>
       <c r="N13">
-        <v>1.041992924547169</v>
+        <v>1.029686526631824</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.034015216522969</v>
+        <v>0.9992206001812836</v>
       </c>
       <c r="D14">
-        <v>1.04175717304486</v>
+        <v>1.020897309298046</v>
       </c>
       <c r="E14">
-        <v>0.9883348863814464</v>
+        <v>0.9327433047194318</v>
       </c>
       <c r="F14">
-        <v>1.048387698784767</v>
+        <v>1.018896789241536</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.040505156727551</v>
+        <v>1.047745280332105</v>
       </c>
       <c r="J14">
-        <v>1.040597701612062</v>
+        <v>1.028661539537313</v>
       </c>
       <c r="K14">
-        <v>1.04530676145116</v>
+        <v>1.035452074445138</v>
       </c>
       <c r="L14">
-        <v>0.9920921077337197</v>
+        <v>0.949074550976452</v>
       </c>
       <c r="M14">
-        <v>1.05191314899327</v>
+        <v>1.033487440358499</v>
       </c>
       <c r="N14">
-        <v>1.042075469706576</v>
+        <v>1.030122356912584</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.034103538697817</v>
+        <v>0.9996943857836971</v>
       </c>
       <c r="D15">
-        <v>1.04182673715864</v>
+        <v>1.021255666228819</v>
       </c>
       <c r="E15">
-        <v>0.9884438009545853</v>
+        <v>0.9332781050737295</v>
       </c>
       <c r="F15">
-        <v>1.04847603650886</v>
+        <v>1.019334127425402</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.040528718263579</v>
+        <v>1.047910599539864</v>
       </c>
       <c r="J15">
-        <v>1.040648481228704</v>
+        <v>1.028928718311795</v>
       </c>
       <c r="K15">
-        <v>1.045356696416799</v>
+        <v>1.035717798601314</v>
       </c>
       <c r="L15">
-        <v>0.9921799884222134</v>
+        <v>0.9494987508782941</v>
       </c>
       <c r="M15">
-        <v>1.051981933834834</v>
+        <v>1.033830459073984</v>
       </c>
       <c r="N15">
-        <v>1.042126321436097</v>
+        <v>1.030389915111571</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.034617756426755</v>
+        <v>1.002428099742356</v>
       </c>
       <c r="D16">
-        <v>1.042231750759177</v>
+        <v>1.023324812169471</v>
       </c>
       <c r="E16">
-        <v>0.9890781214508737</v>
+        <v>0.9363637346017261</v>
       </c>
       <c r="F16">
-        <v>1.048990497105839</v>
+        <v>1.021859995348485</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.040665420367185</v>
+        <v>1.048860957947914</v>
       </c>
       <c r="J16">
-        <v>1.040943931881257</v>
+        <v>1.030469233657417</v>
       </c>
       <c r="K16">
-        <v>1.045647199970722</v>
+        <v>1.03724984469232</v>
       </c>
       <c r="L16">
-        <v>0.9926916645766087</v>
+        <v>0.9519451749175717</v>
       </c>
       <c r="M16">
-        <v>1.052382343462494</v>
+        <v>1.035809914940991</v>
       </c>
       <c r="N16">
-        <v>1.042422191662466</v>
+        <v>1.031932618165684</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.034940437635525</v>
+        <v>1.004122276018283</v>
       </c>
       <c r="D17">
-        <v>1.042485909717261</v>
+        <v>1.024608358528958</v>
       </c>
       <c r="E17">
-        <v>0.989476357848556</v>
+        <v>0.9382760156855671</v>
       </c>
       <c r="F17">
-        <v>1.049313464579203</v>
+        <v>1.02342747988177</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.040750785157935</v>
+        <v>1.049446797438743</v>
       </c>
       <c r="J17">
-        <v>1.04112916359046</v>
+        <v>1.03142295776549</v>
       </c>
       <c r="K17">
-        <v>1.045829301257982</v>
+        <v>1.038198246244094</v>
       </c>
       <c r="L17">
-        <v>0.9930127773699352</v>
+        <v>0.9534603602068056</v>
       </c>
       <c r="M17">
-        <v>1.052633554471626</v>
+        <v>1.037036841807667</v>
       </c>
       <c r="N17">
-        <v>1.042607686421943</v>
+        <v>1.032887696671384</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.035128697042792</v>
+        <v>1.005103210099965</v>
       </c>
       <c r="D18">
-        <v>1.042634193486341</v>
+        <v>1.025351959940401</v>
       </c>
       <c r="E18">
-        <v>0.9897087662937556</v>
+        <v>0.9393832867215687</v>
       </c>
       <c r="F18">
-        <v>1.049501939113357</v>
+        <v>1.024335807394501</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.040800438063123</v>
+        <v>1.049784859176712</v>
       </c>
       <c r="J18">
-        <v>1.04123717088592</v>
+        <v>1.031974801006616</v>
       </c>
       <c r="K18">
-        <v>1.045935472794102</v>
+        <v>1.038746978405347</v>
       </c>
       <c r="L18">
-        <v>0.9932001317071769</v>
+        <v>0.954337351586573</v>
       </c>
       <c r="M18">
-        <v>1.052780097181792</v>
+        <v>1.037747290933851</v>
       </c>
       <c r="N18">
-        <v>1.042715847100151</v>
+        <v>1.03344032359321</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.035192896207499</v>
+        <v>1.005436469861159</v>
       </c>
       <c r="D19">
-        <v>1.042684760667932</v>
+        <v>1.025604659167592</v>
       </c>
       <c r="E19">
-        <v>0.9897880325774034</v>
+        <v>0.9397594814684967</v>
       </c>
       <c r="F19">
-        <v>1.049566219788093</v>
+        <v>1.024644525669899</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.040817344831852</v>
+        <v>1.049899516334854</v>
       </c>
       <c r="J19">
-        <v>1.041273992571042</v>
+        <v>1.032162219444874</v>
       </c>
       <c r="K19">
-        <v>1.045971666862171</v>
+        <v>1.038933334671982</v>
       </c>
       <c r="L19">
-        <v>0.9932640239640975</v>
+        <v>0.9546352493816592</v>
       </c>
       <c r="M19">
-        <v>1.05283006705359</v>
+        <v>1.037988664748982</v>
       </c>
       <c r="N19">
-        <v>1.042752721076289</v>
+        <v>1.033628008187147</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.034905812338472</v>
+        <v>1.003941260785759</v>
       </c>
       <c r="D20">
-        <v>1.042458637011402</v>
+        <v>1.024471172960224</v>
       </c>
       <c r="E20">
-        <v>0.9894336180360679</v>
+        <v>0.938071692466014</v>
       </c>
       <c r="F20">
-        <v>1.049278803585475</v>
+        <v>1.023259923162127</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.040741640688718</v>
+        <v>1.049384321153848</v>
       </c>
       <c r="J20">
-        <v>1.041109293616089</v>
+        <v>1.031321094319449</v>
       </c>
       <c r="K20">
-        <v>1.045809768165292</v>
+        <v>1.038096954468591</v>
       </c>
       <c r="L20">
-        <v>0.9929783193494215</v>
+        <v>0.9532985019057444</v>
       </c>
       <c r="M20">
-        <v>1.052606600285066</v>
+        <v>1.036905744172719</v>
       </c>
       <c r="N20">
-        <v>1.042587788229928</v>
+        <v>1.032785688567566</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.033973006325006</v>
+        <v>0.9989937296870849</v>
       </c>
       <c r="D21">
-        <v>1.041723927665331</v>
+        <v>1.020725737853677</v>
       </c>
       <c r="E21">
-        <v>0.9882828385668249</v>
+        <v>0.9324872132148896</v>
       </c>
       <c r="F21">
-        <v>1.048345483849495</v>
+        <v>1.018687415672767</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.040493888015294</v>
+        <v>1.047666055630449</v>
       </c>
       <c r="J21">
-        <v>1.040573430058567</v>
+        <v>1.028533582978635</v>
       </c>
       <c r="K21">
-        <v>1.045282893046553</v>
+        <v>1.035324813169101</v>
       </c>
       <c r="L21">
-        <v>0.9920501090198102</v>
+        <v>0.9488714019981066</v>
       </c>
       <c r="M21">
-        <v>1.051880274852305</v>
+        <v>1.033323192252868</v>
       </c>
       <c r="N21">
-        <v>1.042051163684691</v>
+        <v>1.029994218640915</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.033386929441674</v>
+        <v>0.9958138208365191</v>
       </c>
       <c r="D22">
-        <v>1.041262333335418</v>
+        <v>1.018322740972619</v>
       </c>
       <c r="E22">
-        <v>0.9875604150241495</v>
+        <v>0.9288972953651162</v>
       </c>
       <c r="F22">
-        <v>1.047759520114002</v>
+        <v>1.015755745192891</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.04033686971944</v>
+        <v>1.046551493765255</v>
       </c>
       <c r="J22">
-        <v>1.040236202253747</v>
+        <v>1.026738855394187</v>
       </c>
       <c r="K22">
-        <v>1.044951228458217</v>
+        <v>1.033539754674088</v>
       </c>
       <c r="L22">
-        <v>0.9914670000341481</v>
+        <v>0.9460223821572518</v>
       </c>
       <c r="M22">
-        <v>1.051423756379001</v>
+        <v>1.031021408701541</v>
       </c>
       <c r="N22">
-        <v>1.041713456977707</v>
+        <v>1.028196942337439</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.033697580007359</v>
+        <v>0.9975063054034621</v>
       </c>
       <c r="D23">
-        <v>1.041506999792424</v>
+        <v>1.019601295467164</v>
       </c>
       <c r="E23">
-        <v>0.9879432794643023</v>
+        <v>0.9308081199963311</v>
       </c>
       <c r="F23">
-        <v>1.048070069243902</v>
+        <v>1.01731541265052</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.040420225972674</v>
+        <v>1.047145655714122</v>
       </c>
       <c r="J23">
-        <v>1.040415001995086</v>
+        <v>1.027694368330359</v>
       </c>
       <c r="K23">
-        <v>1.045127087369106</v>
+        <v>1.034490138082419</v>
       </c>
       <c r="L23">
-        <v>0.991776070289318</v>
+        <v>0.9475391330285314</v>
       </c>
       <c r="M23">
-        <v>1.051665750607867</v>
+        <v>1.032246424339858</v>
       </c>
       <c r="N23">
-        <v>1.041892510635187</v>
+        <v>1.02915381221158</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.034921457881165</v>
+        <v>1.004023076142841</v>
       </c>
       <c r="D24">
-        <v>1.042470960258669</v>
+        <v>1.024533176854946</v>
       </c>
       <c r="E24">
-        <v>0.9894529299347244</v>
+        <v>0.9381640424011821</v>
       </c>
       <c r="F24">
-        <v>1.04929446510923</v>
+        <v>1.023335653217076</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.040745773110102</v>
+        <v>1.049412562758708</v>
       </c>
       <c r="J24">
-        <v>1.041118272111197</v>
+        <v>1.031367135750295</v>
       </c>
       <c r="K24">
-        <v>1.045818594468473</v>
+        <v>1.038142737606977</v>
       </c>
       <c r="L24">
-        <v>0.9929938892766442</v>
+        <v>0.953371659644254</v>
       </c>
       <c r="M24">
-        <v>1.052618779673794</v>
+        <v>1.036964997584312</v>
       </c>
       <c r="N24">
-        <v>1.04259677947553</v>
+        <v>1.032831795382524</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.036343456459404</v>
+        <v>1.011302709925102</v>
       </c>
       <c r="D25">
-        <v>1.043591033699923</v>
+        <v>1.030058553849487</v>
       </c>
       <c r="E25">
-        <v>0.9912096547607049</v>
+        <v>0.9463835801718014</v>
       </c>
       <c r="F25">
-        <v>1.050718952523519</v>
+        <v>1.030089370520001</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.041118099586906</v>
+        <v>1.051900649252028</v>
       </c>
       <c r="J25">
-        <v>1.041932991712921</v>
+        <v>1.035455589482017</v>
       </c>
       <c r="K25">
-        <v>1.046619277611801</v>
+        <v>1.042207504793615</v>
       </c>
       <c r="L25">
-        <v>0.9944092447426414</v>
+        <v>0.959875449400583</v>
       </c>
       <c r="M25">
-        <v>1.053725322275387</v>
+        <v>1.04223787781538</v>
       </c>
       <c r="N25">
-        <v>1.043412656072538</v>
+        <v>1.036926055187498</v>
       </c>
     </row>
   </sheetData>
